--- a/액셀/성적처리테이블명세(2018-12-27).xlsx
+++ b/액셀/성적처리테이블명세(2018-12-27).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="성적일람표" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,18 +112,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -186,6 +174,30 @@
   <si>
     <t>tbl_subject</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -854,11 +866,11 @@
         <v>17</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -875,10 +887,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -896,10 +908,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -915,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1108,46 +1120,46 @@
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="16"/>
@@ -1302,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1353,46 +1365,46 @@
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="16"/>
